--- a/documents/テーブル定義書.xlsx
+++ b/documents/テーブル定義書.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/15e7ce39897d0928/ドキュメント/プログラミング/DCITEX/PHP/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="118" documentId="8_{EAFCF354-D91D-4844-AEB9-F61DB1EE9595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7011A976-328C-4F6D-84D1-7A703185F4B9}"/>
+  <xr:revisionPtr revIDLastSave="155" documentId="8_{EAFCF354-D91D-4844-AEB9-F61DB1EE9595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5573567-FCC4-4D04-8B83-EA73CE0C1FA4}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{7B8E94E0-C41E-416D-8DEF-ACF955D47708}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{7B8E94E0-C41E-416D-8DEF-ACF955D47708}"/>
   </bookViews>
   <sheets>
     <sheet name="画像テーブル" sheetId="1" r:id="rId1"/>
     <sheet name="商品テーブル" sheetId="2" r:id="rId2"/>
-    <sheet name="在庫テーブル" sheetId="6" r:id="rId3"/>
+    <sheet name="売上・仕入テーブル" sheetId="6" r:id="rId3"/>
     <sheet name="ユーザーテーブル" sheetId="3" r:id="rId4"/>
     <sheet name="カートテーブル" sheetId="5" r:id="rId5"/>
-    <sheet name="カート内商品ID" sheetId="7" r:id="rId6"/>
+    <sheet name="カート内商品テーブル" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="66">
   <si>
     <t>テーブル定義書</t>
     <rPh sb="4" eb="7">
@@ -350,10 +350,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>EC_stock</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>stock_id</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -369,22 +365,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>在庫数</t>
-    <rPh sb="0" eb="3">
-      <t>ザイコスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>EC_cart_detail</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>cart_detail_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ID</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -396,6 +377,44 @@
   </si>
   <si>
     <t>カートテーブルのcart_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>在庫数</t>
+    <rPh sb="0" eb="2">
+      <t>ザイコ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EC_sales_purchases</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>changed_qty</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>在庫数の増減</t>
+    <rPh sb="0" eb="3">
+      <t>ザイコスウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ゾウゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>増減を＋ーで表す</t>
+    <rPh sb="0" eb="2">
+      <t>ゾウゲン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>アラワ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -476,20 +495,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="1" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -535,8 +554,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{80533C4A-8F25-411F-91E8-3E3660BCFB69}" name="テーブル13" displayName="テーブル13" ref="A5:K12" totalsRowShown="0">
-  <autoFilter ref="A5:K12" xr:uid="{80533C4A-8F25-411F-91E8-3E3660BCFB69}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{80533C4A-8F25-411F-91E8-3E3660BCFB69}" name="テーブル13" displayName="テーブル13" ref="A5:K13" totalsRowShown="0">
+  <autoFilter ref="A5:K13" xr:uid="{80533C4A-8F25-411F-91E8-3E3660BCFB69}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{76E77655-E331-47DA-B003-2896CC8BD32D}" name="項番"/>
     <tableColumn id="2" xr3:uid="{2284AAD1-D95A-4580-B2E4-4A3EDF6AF565}" name="PrimaryKey"/>
@@ -555,8 +574,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{5701FB30-849E-4B7E-8C66-146BE79B3285}" name="テーブル16" displayName="テーブル16" ref="A5:K10" totalsRowShown="0">
-  <autoFilter ref="A5:K10" xr:uid="{5701FB30-849E-4B7E-8C66-146BE79B3285}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{5701FB30-849E-4B7E-8C66-146BE79B3285}" name="テーブル16" displayName="テーブル16" ref="A5:K11" totalsRowShown="0">
+  <autoFilter ref="A5:K11" xr:uid="{5701FB30-849E-4B7E-8C66-146BE79B3285}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{EBD8B183-733B-4F98-B86A-6AE1F66C931D}" name="項番"/>
     <tableColumn id="2" xr3:uid="{E7868A59-8C42-4E26-80A6-FA6D411AD76F}" name="PrimaryKey"/>
@@ -615,8 +634,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F5089DF5-DAD8-4FCA-9EC8-838A7A923466}" name="テーブル17" displayName="テーブル17" ref="A5:K10" totalsRowShown="0">
-  <autoFilter ref="A5:K10" xr:uid="{F5089DF5-DAD8-4FCA-9EC8-838A7A923466}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F5089DF5-DAD8-4FCA-9EC8-838A7A923466}" name="テーブル17" displayName="テーブル17" ref="A5:K9" totalsRowShown="0">
+  <autoFilter ref="A5:K9" xr:uid="{F5089DF5-DAD8-4FCA-9EC8-838A7A923466}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{51A94FCA-4A51-4439-81FB-4B9ED8AA5CE2}" name="項番"/>
     <tableColumn id="2" xr3:uid="{9D22BCD5-9814-47AF-902B-ADE6C94E0813}" name="PrimaryKey"/>
@@ -934,7 +953,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="A1:XFD1048576"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.4140625" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -946,50 +965,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="F1" s="3" t="s">
+      <c r="B1" s="5"/>
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="5">
+      <c r="I1" s="4">
         <v>44987</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="F2" s="3" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="F2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="4">
         <v>44987</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1018,13 +1037,13 @@
       <c r="H5" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J5" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1142,10 +1161,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D2880B6-95AF-48AB-826F-D63C89857D69}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.4140625" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1159,50 +1178,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="F1" s="3" t="s">
+      <c r="B1" s="5"/>
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="5">
+      <c r="I1" s="4">
         <v>44987</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="F2" s="3" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="F2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="5">
-        <v>44987</v>
+      <c r="I2" s="4">
+        <v>44988</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1231,13 +1250,13 @@
       <c r="H5" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J5" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1312,19 +1331,19 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="G9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H9">
-        <v>100</v>
-      </c>
-      <c r="K9" t="s">
-        <v>52</v>
+        <v>10</v>
+      </c>
+      <c r="I9" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1332,25 +1351,19 @@
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G10" t="s">
         <v>26</v>
       </c>
       <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10" t="s">
-        <v>29</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="K10" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1358,13 +1371,25 @@
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="G11" t="s">
-        <v>28</v>
+        <v>26</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1372,12 +1397,26 @@
         <v>7</v>
       </c>
       <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E13" t="s">
         <v>5</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G13" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1395,10 +1434,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F907830-219E-4ACA-A439-DD776CBC0423}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.4140625" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1411,51 +1450,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="F1" s="3" t="s">
+      <c r="B1" s="5"/>
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="5">
+      <c r="I1" s="4">
         <v>44987</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="F2" s="3" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="F2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="5">
-        <v>44987</v>
+      <c r="I2" s="4">
+        <v>44988</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>55</v>
+      <c r="I3" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1483,13 +1522,13 @@
       <c r="H5" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J5" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1504,10 +1543,10 @@
         <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G6" t="s">
         <v>26</v>
@@ -1547,19 +1586,19 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="G8" t="s">
         <v>26</v>
       </c>
       <c r="H8">
-        <v>10</v>
-      </c>
-      <c r="I8" t="s">
-        <v>29</v>
+        <v>11</v>
+      </c>
+      <c r="K8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1567,13 +1606,22 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="G9" t="s">
-        <v>28</v>
+        <v>26</v>
+      </c>
+      <c r="H9">
+        <v>10</v>
+      </c>
+      <c r="I9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1581,12 +1629,26 @@
         <v>5</v>
       </c>
       <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E11" t="s">
         <v>5</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G11" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1619,50 +1681,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="F1" s="3" t="s">
+      <c r="B1" s="5"/>
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="5">
+      <c r="I1" s="4">
         <v>44987</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="F2" s="3" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="F2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="4">
         <v>44987</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="1" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1691,13 +1753,13 @@
       <c r="H5" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J5" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1825,50 +1887,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="F1" s="3" t="s">
+      <c r="B1" s="5"/>
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="5">
+      <c r="I1" s="4">
         <v>44987</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="F2" s="3" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="F2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="4">
         <v>44987</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="1" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1897,13 +1959,13 @@
       <c r="H5" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J5" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1998,10 +2060,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D64E6D-57BD-45A5-9C4E-9770F80652E7}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.4140625" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2015,51 +2077,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="F1" s="3" t="s">
+      <c r="B1" s="5"/>
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="5">
+      <c r="I1" s="4">
         <v>44987</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="F2" s="3" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="F2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="4">
         <v>44987</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>60</v>
+      <c r="I3" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -2087,13 +2149,13 @@
       <c r="H5" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J5" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2104,14 +2166,11 @@
       <c r="B6" t="s">
         <v>29</v>
       </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="G6" t="s">
         <v>26</v>
@@ -2121,17 +2180,23 @@
       </c>
       <c r="I6" t="s">
         <v>29</v>
+      </c>
+      <c r="K6" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>2</v>
       </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G7" t="s">
         <v>26</v>
@@ -2143,7 +2208,7 @@
         <v>29</v>
       </c>
       <c r="K7" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -2151,47 +2216,19 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="G8" t="s">
         <v>26</v>
       </c>
       <c r="H8">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I8" t="s">
         <v>29</v>
-      </c>
-      <c r="K8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" t="s">
-        <v>63</v>
-      </c>
-      <c r="G9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9">
-        <v>10</v>
-      </c>
-      <c r="I9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/documents/テーブル定義書.xlsx
+++ b/documents/テーブル定義書.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/15e7ce39897d0928/ドキュメント/プログラミング/DCITEX/PHP/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="155" documentId="8_{EAFCF354-D91D-4844-AEB9-F61DB1EE9595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5573567-FCC4-4D04-8B83-EA73CE0C1FA4}"/>
+  <xr:revisionPtr revIDLastSave="158" documentId="8_{EAFCF354-D91D-4844-AEB9-F61DB1EE9595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA85967E-3C59-4F1C-9C4F-F37457CA75A0}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{7B8E94E0-C41E-416D-8DEF-ACF955D47708}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="66">
   <si>
     <t>テーブル定義書</t>
     <rPh sb="4" eb="7">
@@ -634,8 +634,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F5089DF5-DAD8-4FCA-9EC8-838A7A923466}" name="テーブル17" displayName="テーブル17" ref="A5:K9" totalsRowShown="0">
-  <autoFilter ref="A5:K9" xr:uid="{F5089DF5-DAD8-4FCA-9EC8-838A7A923466}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F5089DF5-DAD8-4FCA-9EC8-838A7A923466}" name="テーブル17" displayName="テーブル17" ref="A5:K10" totalsRowShown="0">
+  <autoFilter ref="A5:K10" xr:uid="{F5089DF5-DAD8-4FCA-9EC8-838A7A923466}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{51A94FCA-4A51-4439-81FB-4B9ED8AA5CE2}" name="項番"/>
     <tableColumn id="2" xr3:uid="{9D22BCD5-9814-47AF-902B-ADE6C94E0813}" name="PrimaryKey"/>
@@ -1437,7 +1437,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="D10" sqref="D10:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.4140625" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2060,10 +2060,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D64E6D-57BD-45A5-9C4E-9770F80652E7}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.4140625" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2107,7 +2107,7 @@
         <v>5</v>
       </c>
       <c r="I2" s="4">
-        <v>44987</v>
+        <v>44995</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -2229,6 +2229,34 @@
       </c>
       <c r="I8" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/documents/テーブル定義書.xlsx
+++ b/documents/テーブル定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/15e7ce39897d0928/ドキュメント/プログラミング/DCITEX/PHP/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="158" documentId="8_{EAFCF354-D91D-4844-AEB9-F61DB1EE9595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA85967E-3C59-4F1C-9C4F-F37457CA75A0}"/>
+  <xr:revisionPtr revIDLastSave="169" documentId="8_{EAFCF354-D91D-4844-AEB9-F61DB1EE9595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE8F6999-3811-4828-9BC2-EDCA83918E70}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{7B8E94E0-C41E-416D-8DEF-ACF955D47708}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{7B8E94E0-C41E-416D-8DEF-ACF955D47708}"/>
   </bookViews>
   <sheets>
     <sheet name="画像テーブル" sheetId="1" r:id="rId1"/>
@@ -1163,8 +1163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D2880B6-95AF-48AB-826F-D63C89857D69}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.4140625" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2062,7 +2062,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D64E6D-57BD-45A5-9C4E-9770F80652E7}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>

--- a/documents/テーブル定義書.xlsx
+++ b/documents/テーブル定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/15e7ce39897d0928/ドキュメント/プログラミング/DCITEX/PHP/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="169" documentId="8_{EAFCF354-D91D-4844-AEB9-F61DB1EE9595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE8F6999-3811-4828-9BC2-EDCA83918E70}"/>
+  <xr:revisionPtr revIDLastSave="187" documentId="8_{EAFCF354-D91D-4844-AEB9-F61DB1EE9595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{943BC86C-2E55-48DE-BA7D-EDCED6951969}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{7B8E94E0-C41E-416D-8DEF-ACF955D47708}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{7B8E94E0-C41E-416D-8DEF-ACF955D47708}"/>
   </bookViews>
   <sheets>
     <sheet name="画像テーブル" sheetId="1" r:id="rId1"/>
@@ -1163,7 +1163,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D2880B6-95AF-48AB-826F-D63C89857D69}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
@@ -1436,8 +1436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F907830-219E-4ACA-A439-DD776CBC0423}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.4140625" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>

--- a/documents/テーブル定義書.xlsx
+++ b/documents/テーブル定義書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/15e7ce39897d0928/ドキュメント/プログラミング/DCITEX/PHP/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="187" documentId="8_{EAFCF354-D91D-4844-AEB9-F61DB1EE9595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{943BC86C-2E55-48DE-BA7D-EDCED6951969}"/>
+  <xr:revisionPtr revIDLastSave="188" documentId="8_{EAFCF354-D91D-4844-AEB9-F61DB1EE9595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5BDB5976-C44A-409E-B1E7-E0460054020F}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{7B8E94E0-C41E-416D-8DEF-ACF955D47708}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="画像テーブル" sheetId="1" r:id="rId1"/>
     <sheet name="商品テーブル" sheetId="2" r:id="rId2"/>
     <sheet name="売上・仕入テーブル" sheetId="6" r:id="rId3"/>
-    <sheet name="ユーザーテーブル" sheetId="3" r:id="rId4"/>
-    <sheet name="カートテーブル" sheetId="5" r:id="rId5"/>
+    <sheet name="カートテーブル" sheetId="5" r:id="rId4"/>
+    <sheet name="ユーザーテーブル" sheetId="3" r:id="rId5"/>
     <sheet name="カート内商品テーブル" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -594,6 +594,26 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{414A1926-E498-4A94-B5A7-DED3BF0EF90B}" name="テーブル145" displayName="テーブル145" ref="A5:K9" totalsRowShown="0">
+  <autoFilter ref="A5:K9" xr:uid="{414A1926-E498-4A94-B5A7-DED3BF0EF90B}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{C55C3C4C-C2D5-48C7-866C-A9290815983C}" name="項番"/>
+    <tableColumn id="2" xr3:uid="{1267B678-9838-4787-8EBF-92439BBD2C66}" name="PrimaryKey"/>
+    <tableColumn id="3" xr3:uid="{4640B361-B6AC-4A4E-AA81-8731B1F27286}" name="UniqueKey"/>
+    <tableColumn id="4" xr3:uid="{C502D76F-17FD-40D9-810F-986214E4F9DD}" name="カラム名"/>
+    <tableColumn id="5" xr3:uid="{8A35D8B6-49C7-4B93-888C-3C3F116BC223}" name="カラム名(日本語)"/>
+    <tableColumn id="6" xr3:uid="{57F72FAE-1D27-4CFF-8043-C9ACA41FDBE4}" name="項目概要"/>
+    <tableColumn id="7" xr3:uid="{9F920190-91E3-489C-A045-25B291416F77}" name="データ型"/>
+    <tableColumn id="8" xr3:uid="{1ED286A4-ABEA-45C9-969C-BBB114D52867}" name="長さ(バイト)"/>
+    <tableColumn id="9" xr3:uid="{2B032794-D9F2-405F-B275-F269A4E5A005}" name="NotNull"/>
+    <tableColumn id="10" xr3:uid="{E60E9F44-2DDD-4DFA-9727-748CBF469EDE}" name="初期値"/>
+    <tableColumn id="11" xr3:uid="{0A0D7CDA-8AC4-4166-8ADD-A90DE3C42E7C}" name="備考"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{42B3F7D9-03DC-48F3-9000-A5754E71A5C7}" name="テーブル14" displayName="テーブル14" ref="A5:K10" totalsRowShown="0">
   <autoFilter ref="A5:K10" xr:uid="{42B3F7D9-03DC-48F3-9000-A5754E71A5C7}"/>
   <tableColumns count="11">
@@ -608,26 +628,6 @@
     <tableColumn id="9" xr3:uid="{797677D2-3AC6-4812-A134-950A817792E5}" name="NotNull"/>
     <tableColumn id="10" xr3:uid="{BCDC0219-FACC-4276-BDD0-EB7033F898F9}" name="初期値"/>
     <tableColumn id="11" xr3:uid="{92F55274-4727-426B-8D11-712878457276}" name="備考"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{414A1926-E498-4A94-B5A7-DED3BF0EF90B}" name="テーブル145" displayName="テーブル145" ref="A5:K9" totalsRowShown="0">
-  <autoFilter ref="A5:K9" xr:uid="{414A1926-E498-4A94-B5A7-DED3BF0EF90B}"/>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{C55C3C4C-C2D5-48C7-866C-A9290815983C}" name="項番"/>
-    <tableColumn id="2" xr3:uid="{1267B678-9838-4787-8EBF-92439BBD2C66}" name="PrimaryKey"/>
-    <tableColumn id="3" xr3:uid="{4640B361-B6AC-4A4E-AA81-8731B1F27286}" name="UniqueKey"/>
-    <tableColumn id="4" xr3:uid="{C502D76F-17FD-40D9-810F-986214E4F9DD}" name="カラム名"/>
-    <tableColumn id="5" xr3:uid="{8A35D8B6-49C7-4B93-888C-3C3F116BC223}" name="カラム名(日本語)"/>
-    <tableColumn id="6" xr3:uid="{57F72FAE-1D27-4CFF-8043-C9ACA41FDBE4}" name="項目概要"/>
-    <tableColumn id="7" xr3:uid="{9F920190-91E3-489C-A045-25B291416F77}" name="データ型"/>
-    <tableColumn id="8" xr3:uid="{1ED286A4-ABEA-45C9-969C-BBB114D52867}" name="長さ(バイト)"/>
-    <tableColumn id="9" xr3:uid="{2B032794-D9F2-405F-B275-F269A4E5A005}" name="NotNull"/>
-    <tableColumn id="10" xr3:uid="{E60E9F44-2DDD-4DFA-9727-748CBF469EDE}" name="初期値"/>
-    <tableColumn id="11" xr3:uid="{0A0D7CDA-8AC4-4166-8ADD-A90DE3C42E7C}" name="備考"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1665,211 +1665,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E9B5DEC-79AF-4E09-A369-5A6F0B11E111}">
-  <dimension ref="A1:K10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.4140625" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="5" max="5" width="16.9140625" customWidth="1"/>
-    <col min="8" max="8" width="13.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="F1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="4">
-        <v>44987</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="F2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="4">
-        <v>44987</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="F3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6">
-        <v>11</v>
-      </c>
-      <c r="I6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7">
-        <v>50</v>
-      </c>
-      <c r="I7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8">
-        <v>3</v>
-      </c>
-      <c r="D8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8">
-        <v>255</v>
-      </c>
-      <c r="I8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B2"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72590D70-C817-4785-92FF-32FF7CCFCDD0}">
   <dimension ref="A1:K9"/>
   <sheetViews>
@@ -2043,6 +1838,211 @@
         <v>5</v>
       </c>
       <c r="G9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B2"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E9B5DEC-79AF-4E09-A369-5A6F0B11E111}">
+  <dimension ref="A1:K10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.4140625" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="16.9140625" customWidth="1"/>
+    <col min="8" max="8" width="13.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="4">
+        <v>44987</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="F2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="4">
+        <v>44987</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="F3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6">
+        <v>11</v>
+      </c>
+      <c r="I6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7">
+        <v>50</v>
+      </c>
+      <c r="I7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8">
+        <v>255</v>
+      </c>
+      <c r="I8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" t="s">
         <v>28</v>
       </c>
     </row>

--- a/documents/テーブル定義書.xlsx
+++ b/documents/テーブル定義書.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/15e7ce39897d0928/ドキュメント/プログラミング/DCITEX/PHP/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="188" documentId="8_{EAFCF354-D91D-4844-AEB9-F61DB1EE9595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5BDB5976-C44A-409E-B1E7-E0460054020F}"/>
+  <xr:revisionPtr revIDLastSave="193" documentId="8_{EAFCF354-D91D-4844-AEB9-F61DB1EE9595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1ACA6109-E286-414F-ACA9-BB6D2F8CB08C}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{7B8E94E0-C41E-416D-8DEF-ACF955D47708}"/>
   </bookViews>
   <sheets>
     <sheet name="画像テーブル" sheetId="1" r:id="rId1"/>
     <sheet name="商品テーブル" sheetId="2" r:id="rId2"/>
-    <sheet name="売上・仕入テーブル" sheetId="6" r:id="rId3"/>
+    <sheet name="売上テーブル" sheetId="6" r:id="rId3"/>
     <sheet name="カートテーブル" sheetId="5" r:id="rId4"/>
     <sheet name="ユーザーテーブル" sheetId="3" r:id="rId5"/>
     <sheet name="カート内商品テーブル" sheetId="7" r:id="rId6"/>
@@ -390,24 +390,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>EC_sales_purchases</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>changed_qty</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>在庫数の増減</t>
-    <rPh sb="0" eb="3">
-      <t>ザイコスウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ゾウゲン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>増減を＋ーで表す</t>
     <rPh sb="0" eb="2">
       <t>ゾウゲン</t>
@@ -415,6 +397,21 @@
     <rPh sb="6" eb="7">
       <t>アラワ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EC_sales</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>販売数</t>
+    <rPh sb="0" eb="3">
+      <t>ハンバイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sold_qty</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1437,7 +1434,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.4140625" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1480,7 +1477,7 @@
         <v>5</v>
       </c>
       <c r="I2" s="4">
-        <v>44988</v>
+        <v>45002</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1494,7 +1491,7 @@
         <v>6</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1606,7 +1603,7 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E9" t="s">
         <v>64</v>
@@ -1621,7 +1618,7 @@
         <v>29</v>
       </c>
       <c r="K9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">

--- a/documents/テーブル定義書.xlsx
+++ b/documents/テーブル定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/15e7ce39897d0928/ドキュメント/プログラミング/DCITEX/PHP/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="193" documentId="8_{EAFCF354-D91D-4844-AEB9-F61DB1EE9595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1ACA6109-E286-414F-ACA9-BB6D2F8CB08C}"/>
+  <xr:revisionPtr revIDLastSave="199" documentId="8_{EAFCF354-D91D-4844-AEB9-F61DB1EE9595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C53413B-98DE-4C11-B0F6-00FACCBAF000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{7B8E94E0-C41E-416D-8DEF-ACF955D47708}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{7B8E94E0-C41E-416D-8DEF-ACF955D47708}"/>
   </bookViews>
   <sheets>
     <sheet name="画像テーブル" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="64">
   <si>
     <t>テーブル定義書</t>
     <rPh sb="4" eb="7">
@@ -324,10 +324,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>product_qty</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>カートID</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -354,10 +350,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>stock_qty</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>在庫ID</t>
     <rPh sb="0" eb="2">
       <t>ザイコ</t>
@@ -411,7 +403,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>sold_qty</t>
+    <t>qty</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1161,7 +1153,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.4140625" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1205,7 +1197,7 @@
         <v>5</v>
       </c>
       <c r="I2" s="4">
-        <v>44988</v>
+        <v>45003</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1328,10 +1320,10 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G9" t="s">
         <v>26</v>
@@ -1360,7 +1352,7 @@
         <v>11</v>
       </c>
       <c r="K10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1433,8 +1425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F907830-219E-4ACA-A439-DD776CBC0423}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.4140625" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1477,7 +1469,7 @@
         <v>5</v>
       </c>
       <c r="I2" s="4">
-        <v>45002</v>
+        <v>45003</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1491,7 +1483,7 @@
         <v>6</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1540,10 +1532,10 @@
         <v>29</v>
       </c>
       <c r="D6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" t="s">
         <v>55</v>
-      </c>
-      <c r="E6" t="s">
-        <v>57</v>
       </c>
       <c r="G6" t="s">
         <v>26</v>
@@ -1575,7 +1567,7 @@
         <v>29</v>
       </c>
       <c r="K7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1586,7 +1578,7 @@
         <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G8" t="s">
         <v>26</v>
@@ -1595,7 +1587,7 @@
         <v>11</v>
       </c>
       <c r="K8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1603,10 +1595,10 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G9" t="s">
         <v>26</v>
@@ -1618,7 +1610,7 @@
         <v>29</v>
       </c>
       <c r="K9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1775,7 +1767,7 @@
         <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G6" t="s">
         <v>26</v>
@@ -1807,7 +1799,7 @@
         <v>29</v>
       </c>
       <c r="K7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -2059,8 +2051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D64E6D-57BD-45A5-9C4E-9770F80652E7}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.4140625" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2104,7 +2096,7 @@
         <v>5</v>
       </c>
       <c r="I2" s="4">
-        <v>44995</v>
+        <v>45003</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -2118,7 +2110,7 @@
         <v>6</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -2167,7 +2159,7 @@
         <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G6" t="s">
         <v>26</v>
@@ -2179,7 +2171,7 @@
         <v>29</v>
       </c>
       <c r="K6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -2205,7 +2197,7 @@
         <v>29</v>
       </c>
       <c r="K7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -2213,10 +2205,10 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="E8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G8" t="s">
         <v>26</v>

--- a/documents/テーブル定義書.xlsx
+++ b/documents/テーブル定義書.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/15e7ce39897d0928/ドキュメント/プログラミング/DCITEX/PHP/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="199" documentId="8_{EAFCF354-D91D-4844-AEB9-F61DB1EE9595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C53413B-98DE-4C11-B0F6-00FACCBAF000}"/>
+  <xr:revisionPtr revIDLastSave="219" documentId="8_{EAFCF354-D91D-4844-AEB9-F61DB1EE9595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC044B8C-5045-42A2-A9CF-09D2CCD18761}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{7B8E94E0-C41E-416D-8DEF-ACF955D47708}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{7B8E94E0-C41E-416D-8DEF-ACF955D47708}"/>
   </bookViews>
   <sheets>
     <sheet name="画像テーブル" sheetId="1" r:id="rId1"/>
     <sheet name="商品テーブル" sheetId="2" r:id="rId2"/>
     <sheet name="売上テーブル" sheetId="6" r:id="rId3"/>
-    <sheet name="カートテーブル" sheetId="5" r:id="rId4"/>
-    <sheet name="ユーザーテーブル" sheetId="3" r:id="rId5"/>
-    <sheet name="カート内商品テーブル" sheetId="7" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId4"/>
+    <sheet name="カートテーブル" sheetId="5" r:id="rId5"/>
+    <sheet name="ユーザーテーブル" sheetId="3" r:id="rId6"/>
+    <sheet name="カート内商品テーブル" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="67">
   <si>
     <t>テーブル定義書</t>
     <rPh sb="4" eb="7">
@@ -346,17 +347,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>stock_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>在庫ID</t>
-    <rPh sb="0" eb="2">
-      <t>ザイコ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>EC_cart_detail</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -404,6 +394,29 @@
   </si>
   <si>
     <t>qty</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EC_autologin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>token</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>expired</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トークン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>有効期限</t>
+    <rPh sb="0" eb="4">
+      <t>ユウコウキゲン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -563,8 +576,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{5701FB30-849E-4B7E-8C66-146BE79B3285}" name="テーブル16" displayName="テーブル16" ref="A5:K11" totalsRowShown="0">
-  <autoFilter ref="A5:K11" xr:uid="{5701FB30-849E-4B7E-8C66-146BE79B3285}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{5701FB30-849E-4B7E-8C66-146BE79B3285}" name="テーブル16" displayName="テーブル16" ref="A5:K10" totalsRowShown="0">
+  <autoFilter ref="A5:K10" xr:uid="{5701FB30-849E-4B7E-8C66-146BE79B3285}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{EBD8B183-733B-4F98-B86A-6AE1F66C931D}" name="項番"/>
     <tableColumn id="2" xr3:uid="{E7868A59-8C42-4E26-80A6-FA6D411AD76F}" name="PrimaryKey"/>
@@ -583,6 +596,26 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{226E023A-79B9-4508-89BC-473FBE7D167E}" name="テーブル1458" displayName="テーブル1458" ref="A5:K8" totalsRowShown="0">
+  <autoFilter ref="A5:K8" xr:uid="{226E023A-79B9-4508-89BC-473FBE7D167E}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{070F9C55-B5B8-4E89-AD10-EDCE77C84F49}" name="項番"/>
+    <tableColumn id="2" xr3:uid="{6F73C16C-FA45-4E3F-9086-ADBDABF9A42D}" name="PrimaryKey"/>
+    <tableColumn id="3" xr3:uid="{DD0A16CD-BD98-4DE2-BAD2-28B985034ACC}" name="UniqueKey"/>
+    <tableColumn id="4" xr3:uid="{E222018C-81F0-4F1D-9B83-506F16B4551E}" name="カラム名"/>
+    <tableColumn id="5" xr3:uid="{549067AA-CE5C-48FE-88D9-882A91BB6247}" name="カラム名(日本語)"/>
+    <tableColumn id="6" xr3:uid="{9C0BC0FA-0782-4AFB-B55D-A03E3C6F97CA}" name="項目概要"/>
+    <tableColumn id="7" xr3:uid="{4C38DB87-B416-486F-8E3A-0142ABC19860}" name="データ型"/>
+    <tableColumn id="8" xr3:uid="{ED3ABC3B-FA50-4D50-81FD-DA07F4990E5C}" name="長さ(バイト)"/>
+    <tableColumn id="9" xr3:uid="{9522418A-EA3B-46A3-93C1-1AE6DE21F8F7}" name="NotNull"/>
+    <tableColumn id="10" xr3:uid="{BAD47363-0532-497F-9BA5-5E0C9BB233F3}" name="初期値"/>
+    <tableColumn id="11" xr3:uid="{BA93CAAC-C974-477D-B972-80A7DCE3CE42}" name="備考"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{414A1926-E498-4A94-B5A7-DED3BF0EF90B}" name="テーブル145" displayName="テーブル145" ref="A5:K9" totalsRowShown="0">
   <autoFilter ref="A5:K9" xr:uid="{414A1926-E498-4A94-B5A7-DED3BF0EF90B}"/>
   <tableColumns count="11">
@@ -602,7 +635,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{42B3F7D9-03DC-48F3-9000-A5754E71A5C7}" name="テーブル14" displayName="テーブル14" ref="A5:K10" totalsRowShown="0">
   <autoFilter ref="A5:K10" xr:uid="{42B3F7D9-03DC-48F3-9000-A5754E71A5C7}"/>
   <tableColumns count="11">
@@ -622,7 +655,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F5089DF5-DAD8-4FCA-9EC8-838A7A923466}" name="テーブル17" displayName="テーブル17" ref="A5:K10" totalsRowShown="0">
   <autoFilter ref="A5:K10" xr:uid="{F5089DF5-DAD8-4FCA-9EC8-838A7A923466}"/>
   <tableColumns count="11">
@@ -1320,10 +1353,10 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G9" t="s">
         <v>26</v>
@@ -1423,7 +1456,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F907830-219E-4ACA-A439-DD776CBC0423}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
@@ -1469,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="I2" s="4">
-        <v>45003</v>
+        <v>45006</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1483,7 +1516,7 @@
         <v>6</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1528,14 +1561,11 @@
       <c r="B6" t="s">
         <v>29</v>
       </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="G6" t="s">
         <v>26</v>
@@ -1545,17 +1575,23 @@
       </c>
       <c r="I6" t="s">
         <v>29</v>
+      </c>
+      <c r="K6" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>2</v>
       </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G7" t="s">
         <v>26</v>
@@ -1563,11 +1599,8 @@
       <c r="H7">
         <v>11</v>
       </c>
-      <c r="I7" t="s">
-        <v>29</v>
-      </c>
       <c r="K7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1575,16 +1608,19 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G8" t="s">
         <v>26</v>
       </c>
       <c r="H8">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="I8" t="s">
+        <v>29</v>
       </c>
       <c r="K8" t="s">
         <v>58</v>
@@ -1595,22 +1631,13 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="G9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9">
-        <v>10</v>
-      </c>
-      <c r="I9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K9" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1618,26 +1645,12 @@
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11">
-        <v>6</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1654,11 +1667,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72590D70-C817-4785-92FF-32FF7CCFCDD0}">
-  <dimension ref="A1:K9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EF53ED0-8BD5-44CE-B149-D9D7CA86779A}">
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.4140625" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1685,7 +1698,7 @@
         <v>4</v>
       </c>
       <c r="I1" s="4">
-        <v>44987</v>
+        <v>45006</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1701,7 +1714,7 @@
         <v>5</v>
       </c>
       <c r="I2" s="4">
-        <v>44987</v>
+        <v>45006</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1715,7 +1728,7 @@
         <v>6</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1764,16 +1777,16 @@
         <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="G6" t="s">
         <v>26</v>
       </c>
       <c r="H6">
-        <v>11</v>
+        <v>255</v>
       </c>
       <c r="I6" t="s">
         <v>29</v>
@@ -1807,27 +1820,16 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="E8" t="s">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="G8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" t="s">
-        <v>28</v>
+      <c r="I8" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1843,6 +1845,195 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72590D70-C817-4785-92FF-32FF7CCFCDD0}">
+  <dimension ref="A1:K9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.4140625" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="16.9140625" customWidth="1"/>
+    <col min="8" max="8" width="13.25" customWidth="1"/>
+    <col min="11" max="11" width="24" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="4">
+        <v>44987</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="F2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="4">
+        <v>44987</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="F3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6">
+        <v>11</v>
+      </c>
+      <c r="I6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7">
+        <v>11</v>
+      </c>
+      <c r="I7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B2"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E9B5DEC-79AF-4E09-A369-5A6F0B11E111}">
   <dimension ref="A1:K10"/>
   <sheetViews>
@@ -2047,11 +2238,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D64E6D-57BD-45A5-9C4E-9770F80652E7}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -2110,7 +2301,7 @@
         <v>6</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -2171,7 +2362,7 @@
         <v>29</v>
       </c>
       <c r="K6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -2205,10 +2396,10 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G8" t="s">
         <v>26</v>

--- a/documents/テーブル定義書.xlsx
+++ b/documents/テーブル定義書.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/15e7ce39897d0928/ドキュメント/プログラミング/DCITEX/PHP/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="219" documentId="8_{EAFCF354-D91D-4844-AEB9-F61DB1EE9595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC044B8C-5045-42A2-A9CF-09D2CCD18761}"/>
+  <xr:revisionPtr revIDLastSave="238" documentId="8_{EAFCF354-D91D-4844-AEB9-F61DB1EE9595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{649E28F8-C3C4-4293-9DA6-AB49B30CBD56}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{7B8E94E0-C41E-416D-8DEF-ACF955D47708}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="3" xr2:uid="{7B8E94E0-C41E-416D-8DEF-ACF955D47708}"/>
   </bookViews>
   <sheets>
     <sheet name="画像テーブル" sheetId="1" r:id="rId1"/>
     <sheet name="商品テーブル" sheetId="2" r:id="rId2"/>
     <sheet name="売上テーブル" sheetId="6" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="8" r:id="rId4"/>
+    <sheet name="自動ログイン" sheetId="8" r:id="rId4"/>
     <sheet name="カートテーブル" sheetId="5" r:id="rId5"/>
     <sheet name="ユーザーテーブル" sheetId="3" r:id="rId6"/>
     <sheet name="カート内商品テーブル" sheetId="7" r:id="rId7"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="65">
   <si>
     <t>テーブル定義書</t>
     <rPh sb="4" eb="7">
@@ -290,19 +290,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>user_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>user_name</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>password</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザーID</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -343,10 +335,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザーテーブルのuser_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>EC_cart_detail</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -417,6 +405,10 @@
     <rPh sb="0" eb="4">
       <t>ユウコウキゲン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーテーブルのuser_name</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -636,8 +628,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{42B3F7D9-03DC-48F3-9000-A5754E71A5C7}" name="テーブル14" displayName="テーブル14" ref="A5:K10" totalsRowShown="0">
-  <autoFilter ref="A5:K10" xr:uid="{42B3F7D9-03DC-48F3-9000-A5754E71A5C7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{42B3F7D9-03DC-48F3-9000-A5754E71A5C7}" name="テーブル14" displayName="テーブル14" ref="A5:K9" totalsRowShown="0">
+  <autoFilter ref="A5:K9" xr:uid="{42B3F7D9-03DC-48F3-9000-A5754E71A5C7}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{695F6D75-3BB1-472C-AF70-CDFAD614370C}" name="項番"/>
     <tableColumn id="2" xr3:uid="{D9E49EFF-ABC7-4BAA-979B-8E898DB43CCF}" name="PrimaryKey"/>
@@ -1353,10 +1345,10 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G9" t="s">
         <v>26</v>
@@ -1385,7 +1377,7 @@
         <v>11</v>
       </c>
       <c r="K10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1459,7 +1451,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.4140625" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1516,7 +1508,7 @@
         <v>6</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1577,7 +1569,7 @@
         <v>29</v>
       </c>
       <c r="K6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1588,10 +1580,10 @@
         <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G7" t="s">
         <v>26</v>
@@ -1600,7 +1592,7 @@
         <v>11</v>
       </c>
       <c r="K7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1608,10 +1600,10 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G8" t="s">
         <v>26</v>
@@ -1623,7 +1615,7 @@
         <v>29</v>
       </c>
       <c r="K8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1671,7 +1663,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.4140625" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1714,7 +1706,7 @@
         <v>5</v>
       </c>
       <c r="I2" s="4">
-        <v>45006</v>
+        <v>45007</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1728,7 +1720,7 @@
         <v>6</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1777,10 +1769,10 @@
         <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G6" t="s">
         <v>26</v>
@@ -1800,7 +1792,7 @@
         <v>42</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G7" t="s">
         <v>26</v>
@@ -1812,7 +1804,7 @@
         <v>29</v>
       </c>
       <c r="K7" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1820,10 +1812,10 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G8" t="s">
         <v>28</v>
@@ -1849,7 +1841,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A1:XFD1048576"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.4140625" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1892,7 +1884,7 @@
         <v>5</v>
       </c>
       <c r="I2" s="4">
-        <v>44987</v>
+        <v>45007</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1906,7 +1898,7 @@
         <v>6</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1955,10 +1947,10 @@
         <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G6" t="s">
         <v>26</v>
@@ -1978,19 +1970,19 @@
         <v>42</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H7">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="I7" t="s">
         <v>29</v>
       </c>
       <c r="K7" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -2035,10 +2027,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E9B5DEC-79AF-4E09-A369-5A6F0B11E111}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:E10"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.4140625" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2080,7 +2072,7 @@
         <v>5</v>
       </c>
       <c r="I2" s="4">
-        <v>44987</v>
+        <v>45007</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -2146,13 +2138,13 @@
         <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H6">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="I6" t="s">
         <v>29</v>
@@ -2166,13 +2158,13 @@
         <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G7" t="s">
         <v>27</v>
       </c>
       <c r="H7">
-        <v>50</v>
+        <v>255</v>
       </c>
       <c r="I7" t="s">
         <v>29</v>
@@ -2183,19 +2175,13 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="G8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8">
-        <v>255</v>
-      </c>
-      <c r="I8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -2203,26 +2189,12 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2301,7 +2273,7 @@
         <v>6</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -2347,10 +2319,10 @@
         <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G6" t="s">
         <v>26</v>
@@ -2362,7 +2334,7 @@
         <v>29</v>
       </c>
       <c r="K6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -2388,7 +2360,7 @@
         <v>29</v>
       </c>
       <c r="K7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -2396,10 +2368,10 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G8" t="s">
         <v>26</v>

--- a/documents/テーブル定義書.xlsx
+++ b/documents/テーブル定義書.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/15e7ce39897d0928/ドキュメント/プログラミング/DCITEX/PHP/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="238" documentId="8_{EAFCF354-D91D-4844-AEB9-F61DB1EE9595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{649E28F8-C3C4-4293-9DA6-AB49B30CBD56}"/>
+  <xr:revisionPtr revIDLastSave="245" documentId="8_{EAFCF354-D91D-4844-AEB9-F61DB1EE9595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B34A2E9-62F4-4797-BFE7-D9EF5726386E}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="3" xr2:uid="{7B8E94E0-C41E-416D-8DEF-ACF955D47708}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="65">
   <si>
     <t>テーブル定義書</t>
     <rPh sb="4" eb="7">
@@ -588,8 +588,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{226E023A-79B9-4508-89BC-473FBE7D167E}" name="テーブル1458" displayName="テーブル1458" ref="A5:K8" totalsRowShown="0">
-  <autoFilter ref="A5:K8" xr:uid="{226E023A-79B9-4508-89BC-473FBE7D167E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{226E023A-79B9-4508-89BC-473FBE7D167E}" name="テーブル1458" displayName="テーブル1458" ref="A5:K9" totalsRowShown="0">
+  <autoFilter ref="A5:K9" xr:uid="{226E023A-79B9-4508-89BC-473FBE7D167E}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{070F9C55-B5B8-4E89-AD10-EDCE77C84F49}" name="項番"/>
     <tableColumn id="2" xr3:uid="{6F73C16C-FA45-4E3F-9086-ADBDABF9A42D}" name="PrimaryKey"/>
@@ -1660,10 +1660,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EF53ED0-8BD5-44CE-B149-D9D7CA86779A}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.4140625" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1706,7 +1706,7 @@
         <v>5</v>
       </c>
       <c r="I2" s="4">
-        <v>45007</v>
+        <v>45009</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1822,6 +1822,26 @@
       </c>
       <c r="I8" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9">
+        <v>11</v>
+      </c>
+      <c r="K9" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/documents/テーブル定義書.xlsx
+++ b/documents/テーブル定義書.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="245" documentId="8_{EAFCF354-D91D-4844-AEB9-F61DB1EE9595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B34A2E9-62F4-4797-BFE7-D9EF5726386E}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="3" xr2:uid="{7B8E94E0-C41E-416D-8DEF-ACF955D47708}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="6" xr2:uid="{7B8E94E0-C41E-416D-8DEF-ACF955D47708}"/>
   </bookViews>
   <sheets>
     <sheet name="画像テーブル" sheetId="1" r:id="rId1"/>
@@ -1451,7 +1451,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="E5" sqref="E5:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.4140625" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1662,8 +1662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EF53ED0-8BD5-44CE-B149-D9D7CA86779A}">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.4140625" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1861,7 +1861,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.4140625" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2050,7 +2050,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.4140625" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2234,8 +2234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D64E6D-57BD-45A5-9C4E-9770F80652E7}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.4140625" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
